--- a/botusers.xlsx
+++ b/botusers.xlsx
@@ -55,21 +55,21 @@
     <t>mister42</t>
   </si>
   <si>
+    <t>o101xd</t>
+  </si>
+  <si>
+    <t>anonymus777777</t>
+  </si>
+  <si>
     <t>tisenres</t>
   </si>
   <si>
     <t>fayzmotr</t>
   </si>
   <si>
-    <t>o101xd</t>
-  </si>
-  <si>
     <t>AzaWerq</t>
   </si>
   <si>
-    <t>anonymus777777</t>
-  </si>
-  <si>
     <t>mrkarimov27</t>
   </si>
   <si>
@@ -79,19 +79,19 @@
     <t>Iskandar</t>
   </si>
   <si>
+    <t>⁢﻿﻿⁢⁣ ⁢‌⁣⁢‌⁣⁢⁣ ⁢﻿ ⁢‌⁢⁢﻿⁠⁢﻿⁢﻿﻿⁢⁣ ⁢</t>
+  </si>
+  <si>
+    <t>жахон</t>
+  </si>
+  <si>
     <t>Nastya</t>
   </si>
   <si>
     <t>Nikola</t>
   </si>
   <si>
-    <t>⁢﻿﻿⁢⁣ ⁢‌⁣⁢‌⁣⁢⁣ ⁢﻿ ⁢‌⁢⁢﻿⁠⁢﻿⁢﻿﻿⁢⁣ ⁢</t>
-  </si>
-  <si>
     <t>urdrops</t>
-  </si>
-  <si>
-    <t>жахон</t>
   </si>
   <si>
     <t>Muhammadkarim</t>
@@ -572,10 +572,10 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B4">
-        <v>5458557480</v>
+        <v>996346575</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -587,7 +587,7 @@
         <v>29</v>
       </c>
       <c r="G4" s="2">
-        <v>45117.88761553002</v>
+        <v>45121.06235907642</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -596,15 +596,15 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5">
-        <v>790208567</v>
+        <v>1666038493</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -612,31 +612,28 @@
       <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
       <c r="F5" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="2">
-        <v>45123.64506183212</v>
+        <v>45123.65402946019</v>
       </c>
       <c r="H5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B6">
-        <v>996346575</v>
+        <v>5458557480</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -648,7 +645,7 @@
         <v>29</v>
       </c>
       <c r="G6" s="2">
-        <v>45121.06235907642</v>
+        <v>45117.88761553002</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -657,15 +654,15 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B7">
-        <v>1900881938</v>
+        <v>790208567</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -673,28 +670,31 @@
       <c r="D7" t="s">
         <v>24</v>
       </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2">
-        <v>45124.59620800798</v>
+        <v>45123.64506183212</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8">
-        <v>1666038493</v>
+        <v>1900881938</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -703,10 +703,10 @@
         <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2">
-        <v>45123.65402946019</v>
+        <v>45124.59620800798</v>
       </c>
       <c r="H8">
         <v>0</v>

--- a/botusers.xlsx
+++ b/botusers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="212">
   <si>
     <t>ID</t>
   </si>
@@ -28,9 +28,6 @@
     <t>First Name</t>
   </si>
   <si>
-    <t>Last Name</t>
-  </si>
-  <si>
     <t>Language</t>
   </si>
   <si>
@@ -49,22 +46,610 @@
     <t>Page</t>
   </si>
   <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>s_khamidov_u</t>
+  </si>
+  <si>
+    <t>qowpeiSideChick</t>
+  </si>
+  <si>
+    <t>makhmudov_dj</t>
+  </si>
+  <si>
+    <t>AzaWerq</t>
+  </si>
+  <si>
+    <t>Radjapov_Anvar</t>
+  </si>
+  <si>
+    <t>nastywushu</t>
+  </si>
+  <si>
+    <t>Otabek_Ergashev</t>
+  </si>
+  <si>
+    <t>AAA05</t>
+  </si>
+  <si>
+    <t>zakirqqy</t>
+  </si>
+  <si>
+    <t>JAMIEADAMANT</t>
+  </si>
+  <si>
+    <t>umid0708</t>
+  </si>
+  <si>
+    <t>kamlkadzsee</t>
+  </si>
+  <si>
+    <t>iamcringeandnothingmore</t>
+  </si>
+  <si>
+    <t>ajizubeku</t>
+  </si>
+  <si>
+    <t>Not0rious</t>
+  </si>
+  <si>
+    <t>Rahmonov_sarvar</t>
+  </si>
+  <si>
+    <t>Dilmurod_Ulugbekov</t>
+  </si>
+  <si>
+    <t>ZamiraGaniyeva</t>
+  </si>
+  <si>
+    <t>mrkarimov27</t>
+  </si>
+  <si>
+    <t>onliker</t>
+  </si>
+  <si>
+    <t>mak_sardor</t>
+  </si>
+  <si>
+    <t>fayzmotr</t>
+  </si>
+  <si>
+    <t>pamalepam</t>
+  </si>
+  <si>
+    <t>XabCrazy</t>
+  </si>
+  <si>
+    <t>Mmk_komil</t>
+  </si>
+  <si>
+    <t>maga_og</t>
+  </si>
+  <si>
+    <t>vokahzroknoiralli</t>
+  </si>
+  <si>
+    <t>Bellamy_100</t>
+  </si>
+  <si>
+    <t>stark4real</t>
+  </si>
+  <si>
+    <t>OtabekMuminov</t>
+  </si>
+  <si>
+    <t>export707</t>
+  </si>
+  <si>
+    <t>phenom_ali</t>
+  </si>
+  <si>
+    <t>Prostoy_mujik</t>
+  </si>
+  <si>
+    <t>thenikroy</t>
+  </si>
+  <si>
+    <t>netlocker</t>
+  </si>
+  <si>
+    <t>abraham_neo</t>
+  </si>
+  <si>
+    <t>alllline</t>
+  </si>
+  <si>
+    <t>bltbv1</t>
+  </si>
+  <si>
+    <t>yuldashov04</t>
+  </si>
+  <si>
+    <t>chikipukibabe</t>
+  </si>
+  <si>
+    <t>dispatchross</t>
+  </si>
+  <si>
+    <t>Ruby_roider</t>
+  </si>
+  <si>
+    <t>axaxaxaxalol</t>
+  </si>
+  <si>
+    <t>tisenres</t>
+  </si>
+  <si>
+    <t>usmanovbob</t>
+  </si>
+  <si>
+    <t>diyor2207</t>
+  </si>
+  <si>
+    <t>Komil_2003_12</t>
+  </si>
+  <si>
+    <t>TemurjonKumakov</t>
+  </si>
+  <si>
+    <t>ZafarYusupovR</t>
+  </si>
+  <si>
+    <t>qbwerty</t>
+  </si>
+  <si>
+    <t>Shavkatovic001</t>
+  </si>
+  <si>
+    <t>S_Usmanov</t>
+  </si>
+  <si>
+    <t>Omina1604</t>
+  </si>
+  <si>
+    <t>shustiry</t>
+  </si>
+  <si>
+    <t>hasanovotabek</t>
+  </si>
+  <si>
+    <t>IBOJBI7</t>
+  </si>
+  <si>
+    <t>mister42</t>
+  </si>
+  <si>
+    <t>akmalakramov</t>
+  </si>
+  <si>
+    <t>andijon_santexnik</t>
+  </si>
+  <si>
+    <t>UTelegram</t>
+  </si>
+  <si>
+    <t>DSSAFETY_SAM</t>
+  </si>
+  <si>
+    <t>Soatofff</t>
+  </si>
+  <si>
+    <t>RJN_RSG</t>
+  </si>
+  <si>
+    <t>Alan0117</t>
+  </si>
+  <si>
+    <t>kiyomovv</t>
+  </si>
+  <si>
+    <t>mari_gi_y</t>
+  </si>
+  <si>
+    <t>s777cc</t>
+  </si>
+  <si>
+    <t>KuMiX0</t>
+  </si>
+  <si>
+    <t>diyorjonraxmonqulov</t>
+  </si>
+  <si>
+    <t>o101xd</t>
+  </si>
+  <si>
+    <t>shahzodclever</t>
+  </si>
+  <si>
+    <t>HET_COXP</t>
+  </si>
+  <si>
+    <t>Masyaam</t>
+  </si>
+  <si>
+    <t>insauduu</t>
+  </si>
+  <si>
+    <t>udkow</t>
+  </si>
+  <si>
+    <t>YulduzOtaxanovna</t>
+  </si>
+  <si>
+    <t>kompoteg10</t>
+  </si>
+  <si>
+    <t>Tofav13</t>
+  </si>
+  <si>
+    <t>dreamer_px</t>
+  </si>
+  <si>
+    <t>Graal_info</t>
+  </si>
+  <si>
+    <t>bakhromxonov</t>
+  </si>
+  <si>
     <t>anonymus777777</t>
   </si>
   <si>
-    <t>o101xd</t>
-  </si>
-  <si>
-    <t>\xd094d0b8d0bcd0b020d09ad0bdd18fd0b7d18c</t>
+    <t>Dadakuziyev</t>
+  </si>
+  <si>
+    <t>T_Byaka</t>
+  </si>
+  <si>
+    <t>joker_musa</t>
+  </si>
+  <si>
+    <t>fake_ruby</t>
+  </si>
+  <si>
+    <t>sanji33</t>
+  </si>
+  <si>
+    <t>NEVERstp</t>
+  </si>
+  <si>
+    <t>dynisma_support</t>
+  </si>
+  <si>
+    <t>ozodshakirov</t>
+  </si>
+  <si>
+    <t>qwewym</t>
+  </si>
+  <si>
+    <t>qwerty9740</t>
+  </si>
+  <si>
+    <t>Dave_kin</t>
+  </si>
+  <si>
+    <t>\xc386</t>
+  </si>
+  <si>
+    <t>\xc2b04b68616d69646f765f53616d616e646172c2b0</t>
+  </si>
+  <si>
+    <t>\xd093d183d0b7d0b0d0bbd18cd0bad0b0f09386a920f09386aa</t>
+  </si>
+  <si>
+    <t>\x4a616d73686964</t>
+  </si>
+  <si>
+    <t>\x417a61646f766120426f6e75</t>
+  </si>
+  <si>
+    <t>\x757264726f7073</t>
+  </si>
+  <si>
+    <t>\x416e766172</t>
+  </si>
+  <si>
+    <t>\x4e6173747961</t>
+  </si>
+  <si>
+    <t>\x4f746162656b</t>
+  </si>
+  <si>
+    <t>\xd090d0b1d0b4d183d0bbd185d0b0d0b9f09fa6a6</t>
+  </si>
+  <si>
+    <t>\xc2adc2ad5a616b6972</t>
+  </si>
+  <si>
+    <t>\x50726976617465206e756d626572</t>
+  </si>
+  <si>
+    <t>\x556d696420287e3a7d5d</t>
+  </si>
+  <si>
+    <t>\x6b616d6c6b61647a7365</t>
+  </si>
+  <si>
+    <t>\xd18e</t>
+  </si>
+  <si>
+    <t>\xd090d0b7d0b8d0b7d0b1d0b5d0ba</t>
+  </si>
+  <si>
+    <t>\xf09f87baf09f87bf</t>
+  </si>
+  <si>
+    <t>\x536172766172</t>
+  </si>
+  <si>
+    <t>\x556c7567e2809862656b6f762044696c6d75726f64</t>
+  </si>
+  <si>
+    <t>\x5a616d697261</t>
+  </si>
+  <si>
+    <t>\x4d7568616d6d61646b6172696d</t>
+  </si>
+  <si>
+    <t>\x436172726f74</t>
+  </si>
+  <si>
+    <t>\x536172646f72</t>
+  </si>
+  <si>
+    <t>\x4e696b6f6c61</t>
+  </si>
+  <si>
+    <t>\x4e</t>
+  </si>
+  <si>
+    <t>\x7861626962</t>
+  </si>
+  <si>
+    <t>\x4b6f6d696c6a6f6e</t>
+  </si>
+  <si>
+    <t>\x4d616761</t>
+  </si>
+  <si>
+    <t>\x496c6c6172696f6e</t>
+  </si>
+  <si>
+    <t>\x3e3ec2a5c2a5e299944c696d626fe29994c2a5c2a53c3c</t>
+  </si>
+  <si>
+    <t>\x636f657572</t>
+  </si>
+  <si>
+    <t>\x416b686d61646a6f6e</t>
+  </si>
+  <si>
+    <t>\x4d7568616d6d616420416c69</t>
+  </si>
+  <si>
+    <t>\x4d7568616d6d6164205975737566</t>
+  </si>
+  <si>
+    <t>\x4f6f5073</t>
+  </si>
+  <si>
+    <t>\x59204d</t>
+  </si>
+  <si>
+    <t>\x456c6c696f74</t>
+  </si>
+  <si>
+    <t>\x4162726168616d</t>
+  </si>
+  <si>
+    <t>\x5a6176716979</t>
+  </si>
+  <si>
+    <t>\xd0bcd0b0d0b4d0bef09f9297</t>
+  </si>
+  <si>
+    <t>\xf09fa681</t>
+  </si>
+  <si>
+    <t>\x41e280994f6e65</t>
+  </si>
+  <si>
+    <t>\xf09d99b3f09d99bef09d99bff09d99b4</t>
+  </si>
+  <si>
+    <t>\x6d756b68616d6d6164796f72</t>
+  </si>
+  <si>
+    <t>\xf09d91b2f09d91b9</t>
+  </si>
+  <si>
+    <t>\xcebb205275627920cebb</t>
+  </si>
+  <si>
+    <t>\x7370616365</t>
+  </si>
+  <si>
+    <t>\x426f627572</t>
+  </si>
+  <si>
+    <t>\x4421796f72f09f9983</t>
+  </si>
+  <si>
+    <t>\xd983d988d985d98ad984d8acd988d986</t>
+  </si>
+  <si>
+    <t>\xd0a2d0b5d0bcd183d180</t>
+  </si>
+  <si>
+    <t>\x5a61666172</t>
+  </si>
+  <si>
+    <t>\xd0a1d0b0d0b8d0b4d0bcd0b0d0bbd0b8d0bad185d0bed0bd</t>
+  </si>
+  <si>
+    <t>\x536861787a6f64</t>
+  </si>
+  <si>
+    <t>\x6d756b68616d6d61646a6f6e</t>
+  </si>
+  <si>
+    <t>\xd09cd183d185d0b0d0bcd0bcd0b0d0b4d090d18ed0b1d185d0bed0bd</t>
+  </si>
+  <si>
+    <t>\xe29da4</t>
+  </si>
+  <si>
+    <t>\xec9790eba5b4ed82a820f09f87b0f09f87b7</t>
+  </si>
+  <si>
+    <t>\xf09d939ef09d93bdf09d93aaf09d93abf09d93aef09d93b420f09d9397f09d93aaf09d93bcf09d93aaf09d93b7f09d93b8f09d93bf</t>
+  </si>
+  <si>
+    <t>\xe18f83e18f9ee18eaae18f86e18eaae18f81</t>
+  </si>
+  <si>
+    <t>\x536865726a6f6e</t>
+  </si>
+  <si>
+    <t>\x49736b616e646172</t>
+  </si>
+  <si>
+    <t>\xd090</t>
+  </si>
+  <si>
+    <t>\xe281a2efbbbfefbbbfe281a2e281a320e281a220d0bad183d180d181d0b5d0b4d0b1d0b5d0ba</t>
+  </si>
+  <si>
+    <t>\xd091d0b5d0bad0b6d0b8d0b3d0b8d182</t>
+  </si>
+  <si>
+    <t>\x556c756762656b</t>
+  </si>
+  <si>
+    <t>\x53414d</t>
+  </si>
+  <si>
+    <t>\x4972697362656b20536f61746f76</t>
+  </si>
+  <si>
+    <t>\xd094d0b6d0b0d0bbd0bed0bbd0b8d0b4d0b4d0b8d0bd</t>
+  </si>
+  <si>
+    <t>\x41cda36c61cda36e</t>
+  </si>
+  <si>
+    <t>\x4b69796f6d6f76</t>
+  </si>
+  <si>
+    <t>\x4d617269</t>
+  </si>
+  <si>
+    <t>\xd0a2d0b0d0bcd0bed18d</t>
+  </si>
+  <si>
+    <t>\x4469796f726a6f6e</t>
+  </si>
+  <si>
+    <t>â¢ï»¿ï»¿â¢â£ â¢ââ£â¢ââ£â¢â£ â¢ï»¿ â¢ââ¢â¢ï»¿â â¢ï»¿â¢ï»¿ï»¿â¢â£ â¢</t>
+  </si>
+  <si>
+    <t>\x536861687a6f64</t>
+  </si>
+  <si>
+    <t>\xe2809420e18fb4e1b487e1b4a9e1b49b79e1b480e1b4a7d0bdd18bd0b920d0bde1b48fca8de1b487e1b4a9d18b20efb88fefb88fefb88fefb88ff09f93a8e29da4efb88f</t>
+  </si>
+  <si>
+    <t>\xd09cd0b0d181d18f</t>
+  </si>
+  <si>
+    <t>\x416e67656c696e61292e2e2e</t>
+  </si>
+  <si>
+    <t>\xd0b5d0b2d0b0</t>
+  </si>
+  <si>
+    <t>\x446179616e61f09f8c9e</t>
+  </si>
+  <si>
+    <t>\x59756c64757a204f746178616e6f766e61</t>
+  </si>
+  <si>
+    <t>\x656c696e61207379616f</t>
+  </si>
+  <si>
+    <t>\x5479206b696e67</t>
+  </si>
+  <si>
+    <t>\x72c3aa76657572</t>
+  </si>
+  <si>
+    <t>\x4b6f6d696c</t>
+  </si>
+  <si>
+    <t>\x412e53</t>
+  </si>
+  <si>
+    <t>\x4d61746c756261</t>
+  </si>
+  <si>
+    <t>\x477261616c</t>
+  </si>
+  <si>
+    <t>\x53616964616d69726b686f6e2042616b68726f6d786f6e6f76</t>
   </si>
   <si>
     <t>\xd0b6d0b0d185d0bed0bd</t>
   </si>
   <si>
-    <t>\xe281a2efbbbfefbbbfe281a2e281a320e281a2e2808ce281a3e281a2e2808ce281a3e281a2e281a320e281a2efbbbf20e281a2e2808ce281a2e281a2efbbbfe281a0e281a2efbbbfe281a2efbbbfefbbbfe281a2e281a320e281a2</t>
+    <t>\x4e6f64697262656b</t>
+  </si>
+  <si>
+    <t>\x476f736861</t>
+  </si>
+  <si>
+    <t>\x4d757375726d6f6e204162647567616e696576</t>
+  </si>
+  <si>
+    <t>\x696c</t>
+  </si>
+  <si>
+    <t>\xd0a2d0b5d181d18220d0bdd0bed0bcd0b5d180</t>
+  </si>
+  <si>
+    <t>\xe280a253414e4a49e280a2</t>
+  </si>
+  <si>
+    <t>\xd094d0b0d0bcd0b8d180</t>
+  </si>
+  <si>
+    <t>\x415554</t>
+  </si>
+  <si>
+    <t>\x4e657665722067697665207570</t>
+  </si>
+  <si>
+    <t>\x42414e202d20535550504f5254</t>
+  </si>
+  <si>
+    <t>\x4f7a6f64</t>
+  </si>
+  <si>
+    <t>\x646973616161</t>
+  </si>
+  <si>
+    <t>\x74796c657270657264656e</t>
+  </si>
+  <si>
+    <t>\x44617665206b696e</t>
   </si>
   <si>
     <t>ru</t>
+  </si>
+  <si>
+    <t>uz</t>
+  </si>
+  <si>
+    <t>en</t>
   </si>
 </sst>
 </file>
@@ -426,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -469,22 +1054,22 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>6550913910</v>
+        <v>1180682916</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="F2" s="2">
-        <v>45142.82698757736</v>
+        <v>45125.2441428763</v>
       </c>
       <c r="G2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -498,25 +1083,25 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>1666038493</v>
+        <v>60762484</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="F3" s="2">
-        <v>45139.97729304815</v>
+        <v>45125.05391252711</v>
       </c>
       <c r="G3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -530,34 +1115,3416 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>996346575</v>
+        <v>993481211</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45125.01260517618</v>
+      </c>
+      <c r="G4">
+        <v>500</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>727660515</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45125.35419877067</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>19</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>66</v>
+      </c>
+      <c r="B6">
+        <v>416946362</v>
+      </c>
+      <c r="D6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45126.64276844528</v>
+      </c>
+      <c r="G6">
+        <v>500</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>1900881938</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45125.02079963229</v>
+      </c>
+      <c r="G7">
+        <v>500</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>53982393</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45125.35864985886</v>
+      </c>
+      <c r="G8">
+        <v>500</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>57</v>
+      </c>
+      <c r="B9">
+        <v>1322899011</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2">
-        <v>45139.75382317627</v>
-      </c>
-      <c r="G4">
-        <v>950</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
+      <c r="D9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45125.77171786021</v>
+      </c>
+      <c r="G9">
+        <v>500</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>417490791</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45125.42234994326</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>248015123</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45125.38427984465</v>
+      </c>
+      <c r="G11">
+        <v>500</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>5049209582</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" t="s">
+        <v>209</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45125.062146276</v>
+      </c>
+      <c r="G12">
+        <v>500</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>930231598</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" t="s">
+        <v>211</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45125.39601914139</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>63</v>
+      </c>
+      <c r="B14">
+        <v>512661423</v>
+      </c>
+      <c r="D14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" t="s">
+        <v>211</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45126.34325737336</v>
+      </c>
+      <c r="G14">
+        <v>500</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>5722861662</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45125.39995606859</v>
+      </c>
+      <c r="G15">
+        <v>250</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5791187166</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F16" s="2">
+        <v>45125.27835586987</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>5068039033</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" t="s">
+        <v>209</v>
+      </c>
+      <c r="F17" s="2">
+        <v>45125.03007264094</v>
+      </c>
+      <c r="G17">
+        <v>500</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>2</v>
       </c>
-      <c r="K4">
-        <v>30280</v>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>48</v>
+      </c>
+      <c r="B18">
+        <v>528708387</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" t="s">
+        <v>209</v>
+      </c>
+      <c r="F18" s="2">
+        <v>45125.5221303154</v>
+      </c>
+      <c r="G18">
+        <v>500</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>148228881</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" s="2">
+        <v>45125.43796286839</v>
+      </c>
+      <c r="G19">
+        <v>500</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>957831856</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F20" s="2">
+        <v>45125.40806677552</v>
+      </c>
+      <c r="G20">
+        <v>500</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>7</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>779135863</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" t="s">
+        <v>210</v>
+      </c>
+      <c r="F21" s="2">
+        <v>45125.45621779127</v>
+      </c>
+      <c r="G21">
+        <v>500</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>1157254850</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22" s="2">
+        <v>45125.40084442611</v>
+      </c>
+      <c r="G22">
+        <v>500</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>565337670</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" t="s">
+        <v>210</v>
+      </c>
+      <c r="F23" s="2">
+        <v>45125.40002854467</v>
+      </c>
+      <c r="G23">
+        <v>500</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>955556917</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" t="s">
+        <v>209</v>
+      </c>
+      <c r="F24" s="2">
+        <v>45125.32293409245</v>
+      </c>
+      <c r="G24">
+        <v>500</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>1649096179</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" t="s">
+        <v>209</v>
+      </c>
+      <c r="F25" s="2">
+        <v>45125.4055874072</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>18</v>
+      </c>
+      <c r="B26">
+        <v>790208567</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" t="s">
+        <v>211</v>
+      </c>
+      <c r="F26" s="2">
+        <v>45125.330253625</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>7</v>
+      </c>
+      <c r="K26">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>41</v>
+      </c>
+      <c r="B27">
+        <v>2891917</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" t="s">
+        <v>209</v>
+      </c>
+      <c r="F27" s="2">
+        <v>45125.4595075022</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>642590415</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" t="s">
+        <v>209</v>
+      </c>
+      <c r="F28" s="2">
+        <v>45125.31658260636</v>
+      </c>
+      <c r="G28">
+        <v>500</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>7</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>44</v>
+      </c>
+      <c r="B29">
+        <v>486533572</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" t="s">
+        <v>209</v>
+      </c>
+      <c r="F29" s="2">
+        <v>45125.4883328473</v>
+      </c>
+      <c r="G29">
+        <v>500</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>680643629</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" t="s">
+        <v>209</v>
+      </c>
+      <c r="F30" s="2">
+        <v>45125.42315113271</v>
+      </c>
+      <c r="G30">
+        <v>500</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>46</v>
+      </c>
+      <c r="B31">
+        <v>883872676</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" t="s">
+        <v>209</v>
+      </c>
+      <c r="F31" s="2">
+        <v>45125.5006909966</v>
+      </c>
+      <c r="G31">
+        <v>500</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>7</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>344928770</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" t="s">
+        <v>210</v>
+      </c>
+      <c r="F32" s="2">
+        <v>45125.44051106521</v>
+      </c>
+      <c r="G32">
+        <v>500</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>7</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
+        <v>19</v>
+      </c>
+      <c r="B33">
+        <v>1152868320</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" t="s">
+        <v>209</v>
+      </c>
+      <c r="F33" s="2">
+        <v>45125.33802329065</v>
+      </c>
+      <c r="G33">
+        <v>500</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34">
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <v>450882989</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" t="s">
+        <v>210</v>
+      </c>
+      <c r="F34" s="2">
+        <v>45125.35034043507</v>
+      </c>
+      <c r="G34">
+        <v>500</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <v>56</v>
+      </c>
+      <c r="B35">
+        <v>5343983909</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" t="s">
+        <v>209</v>
+      </c>
+      <c r="F35" s="2">
+        <v>45125.7213803448</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="B36">
+        <v>1229867548</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" t="s">
+        <v>209</v>
+      </c>
+      <c r="F36" s="2">
+        <v>45125.42004250549</v>
+      </c>
+      <c r="G36">
+        <v>500</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>6142679825</v>
+      </c>
+      <c r="D37" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" t="s">
+        <v>209</v>
+      </c>
+      <c r="F37" s="2">
+        <v>45125.42316309779</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>7</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>473784868</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" t="s">
+        <v>210</v>
+      </c>
+      <c r="F38" s="2">
+        <v>45125.48944480141</v>
+      </c>
+      <c r="G38">
+        <v>500</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39">
+        <v>691949769</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" t="s">
+        <v>209</v>
+      </c>
+      <c r="F39" s="2">
+        <v>45125.43058597994</v>
+      </c>
+      <c r="G39">
+        <v>500</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40">
+        <v>49</v>
+      </c>
+      <c r="B40">
+        <v>5077218221</v>
+      </c>
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" t="s">
+        <v>140</v>
+      </c>
+      <c r="E40" t="s">
+        <v>211</v>
+      </c>
+      <c r="F40" s="2">
+        <v>45125.53487973992</v>
+      </c>
+      <c r="G40">
+        <v>500</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <v>50</v>
+      </c>
+      <c r="B41">
+        <v>5023398513</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" t="s">
+        <v>209</v>
+      </c>
+      <c r="F41" s="2">
+        <v>45125.55061316805</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42">
+        <v>304297775</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" t="s">
+        <v>211</v>
+      </c>
+      <c r="F42" s="2">
+        <v>45125.44644544482</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>7</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>800768444</v>
+      </c>
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" t="s">
+        <v>209</v>
+      </c>
+      <c r="F43" s="2">
+        <v>45125.46228628694</v>
+      </c>
+      <c r="G43">
+        <v>500</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>7</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1132393503</v>
+      </c>
+      <c r="D44" t="s">
+        <v>144</v>
+      </c>
+      <c r="E44" t="s">
+        <v>210</v>
+      </c>
+      <c r="F44" s="2">
+        <v>45125.48590005535</v>
+      </c>
+      <c r="G44">
+        <v>500</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>51</v>
+      </c>
+      <c r="B45">
+        <v>5620532515</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" t="s">
+        <v>210</v>
+      </c>
+      <c r="F45" s="2">
+        <v>45125.55676947454</v>
+      </c>
+      <c r="G45">
+        <v>500</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>7</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>1056232341</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" t="s">
+        <v>209</v>
+      </c>
+      <c r="F46" s="2">
+        <v>45125.51770434863</v>
+      </c>
+      <c r="G46">
+        <v>500</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47">
+        <v>54</v>
+      </c>
+      <c r="B47">
+        <v>852354764</v>
+      </c>
+      <c r="D47" t="s">
+        <v>147</v>
+      </c>
+      <c r="E47" t="s">
+        <v>210</v>
+      </c>
+      <c r="F47" s="2">
+        <v>45125.60172804221</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>1710389291</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" t="s">
+        <v>148</v>
+      </c>
+      <c r="E48" t="s">
+        <v>209</v>
+      </c>
+      <c r="F48" s="2">
+        <v>45125.56277880942</v>
+      </c>
+      <c r="G48">
+        <v>500</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49">
+        <v>32</v>
+      </c>
+      <c r="B49">
+        <v>5715162189</v>
+      </c>
+      <c r="C49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49" t="s">
+        <v>209</v>
+      </c>
+      <c r="F49" s="2">
+        <v>45125.42265492473</v>
+      </c>
+      <c r="G49">
+        <v>500</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>874544384</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" t="s">
+        <v>150</v>
+      </c>
+      <c r="E50" t="s">
+        <v>209</v>
+      </c>
+      <c r="F50" s="2">
+        <v>45125.81986588224</v>
+      </c>
+      <c r="G50">
+        <v>500</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>5458557480</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" t="s">
+        <v>209</v>
+      </c>
+      <c r="F51" s="2">
+        <v>45125.67425528905</v>
+      </c>
+      <c r="G51">
+        <v>500</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52">
+        <v>59</v>
+      </c>
+      <c r="B52">
+        <v>176532530</v>
+      </c>
+      <c r="C52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" t="s">
+        <v>209</v>
+      </c>
+      <c r="F52" s="2">
+        <v>45125.84291129778</v>
+      </c>
+      <c r="G52">
+        <v>500</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53">
+        <v>60</v>
+      </c>
+      <c r="B53">
+        <v>1011258450</v>
+      </c>
+      <c r="C53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" t="s">
+        <v>152</v>
+      </c>
+      <c r="E53" t="s">
+        <v>209</v>
+      </c>
+      <c r="F53" s="2">
+        <v>45125.84527294127</v>
+      </c>
+      <c r="G53">
+        <v>500</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54">
+        <v>62</v>
+      </c>
+      <c r="B54">
+        <v>1884908366</v>
+      </c>
+      <c r="C54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" t="s">
+        <v>153</v>
+      </c>
+      <c r="E54" t="s">
+        <v>209</v>
+      </c>
+      <c r="F54" s="2">
+        <v>45126.3248269812</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>7</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>61</v>
+      </c>
+      <c r="B55">
+        <v>5572209985</v>
+      </c>
+      <c r="C55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E55" t="s">
+        <v>209</v>
+      </c>
+      <c r="F55" s="2">
+        <v>45125.91494984723</v>
+      </c>
+      <c r="G55">
+        <v>500</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>13</v>
+      </c>
+      <c r="B56">
+        <v>621501453</v>
+      </c>
+      <c r="C56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" t="s">
+        <v>155</v>
+      </c>
+      <c r="E56" t="s">
+        <v>209</v>
+      </c>
+      <c r="F56" s="2">
+        <v>45125.08150870671</v>
+      </c>
+      <c r="G56">
+        <v>500</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>52</v>
+      </c>
+      <c r="B57">
+        <v>816459036</v>
+      </c>
+      <c r="C57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" t="s">
+        <v>156</v>
+      </c>
+      <c r="E57" t="s">
+        <v>209</v>
+      </c>
+      <c r="F57" s="2">
+        <v>45125.56269338592</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>18</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>7</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>64</v>
+      </c>
+      <c r="B58">
+        <v>1062344908</v>
+      </c>
+      <c r="C58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" t="s">
+        <v>157</v>
+      </c>
+      <c r="E58" t="s">
+        <v>209</v>
+      </c>
+      <c r="F58" s="2">
+        <v>45126.39285333368</v>
+      </c>
+      <c r="G58">
+        <v>500</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>7</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>65</v>
+      </c>
+      <c r="B59">
+        <v>6295494040</v>
+      </c>
+      <c r="D59" t="s">
+        <v>158</v>
+      </c>
+      <c r="E59" t="s">
+        <v>209</v>
+      </c>
+      <c r="F59" s="2">
+        <v>45126.56004968019</v>
+      </c>
+      <c r="G59">
+        <v>500</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>7</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>39</v>
+      </c>
+      <c r="B60">
+        <v>1888453290</v>
+      </c>
+      <c r="D60" t="s">
+        <v>159</v>
+      </c>
+      <c r="E60" t="s">
+        <v>209</v>
+      </c>
+      <c r="F60" s="2">
+        <v>45125.44836068335</v>
+      </c>
+      <c r="G60">
+        <v>500</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>70</v>
+      </c>
+      <c r="B61">
+        <v>171807132</v>
+      </c>
+      <c r="C61" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" t="s">
+        <v>121</v>
+      </c>
+      <c r="E61" t="s">
+        <v>209</v>
+      </c>
+      <c r="F61" s="2">
+        <v>45128.44152887485</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>7</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>95</v>
+      </c>
+      <c r="B62">
+        <v>5686187052</v>
+      </c>
+      <c r="C62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" t="s">
+        <v>160</v>
+      </c>
+      <c r="E62" t="s">
+        <v>209</v>
+      </c>
+      <c r="F62" s="2">
+        <v>45141.67501779067</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>94</v>
+      </c>
+      <c r="B63">
+        <v>1059470696</v>
+      </c>
+      <c r="C63" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" t="s">
+        <v>161</v>
+      </c>
+      <c r="E63" t="s">
+        <v>209</v>
+      </c>
+      <c r="F63" s="2">
+        <v>45141.63006980225</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>77</v>
+      </c>
+      <c r="B64">
+        <v>1483622942</v>
+      </c>
+      <c r="C64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" t="s">
+        <v>162</v>
+      </c>
+      <c r="E64" t="s">
+        <v>211</v>
+      </c>
+      <c r="F64" s="2">
+        <v>45137.5719705279</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>110</v>
+      </c>
+      <c r="B65">
+        <v>1050478390</v>
+      </c>
+      <c r="C65" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65" t="s">
+        <v>163</v>
+      </c>
+      <c r="E65" t="s">
+        <v>211</v>
+      </c>
+      <c r="F65" s="2">
+        <v>45151.47659440162</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>67</v>
+      </c>
+      <c r="B66">
+        <v>1569867545</v>
+      </c>
+      <c r="D66" t="s">
+        <v>164</v>
+      </c>
+      <c r="E66" t="s">
+        <v>210</v>
+      </c>
+      <c r="F66" s="2">
+        <v>45126.6757997698</v>
+      </c>
+      <c r="G66">
+        <v>500</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>4</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>103</v>
+      </c>
+      <c r="B67">
+        <v>338542782</v>
+      </c>
+      <c r="C67" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" t="s">
+        <v>165</v>
+      </c>
+      <c r="E67" t="s">
+        <v>209</v>
+      </c>
+      <c r="F67" s="2">
+        <v>45146.80521358044</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>86</v>
+      </c>
+      <c r="B68">
+        <v>103532857</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>166</v>
+      </c>
+      <c r="E68" t="s">
+        <v>209</v>
+      </c>
+      <c r="F68" s="2">
+        <v>45138.4992705389</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>7</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>869946765</v>
+      </c>
+      <c r="C69" t="s">
+        <v>69</v>
+      </c>
+      <c r="D69" t="s">
+        <v>167</v>
+      </c>
+      <c r="E69" t="s">
+        <v>209</v>
+      </c>
+      <c r="F69" s="2">
+        <v>45134.5903686106</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>5724890702</v>
+      </c>
+      <c r="D70" t="s">
+        <v>168</v>
+      </c>
+      <c r="E70" t="s">
+        <v>209</v>
+      </c>
+      <c r="F70" s="2">
+        <v>45127.84323604746</v>
+      </c>
+      <c r="G70">
+        <v>1000</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71">
+        <v>3484569</v>
+      </c>
+      <c r="C71" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71" t="s">
+        <v>169</v>
+      </c>
+      <c r="E71" t="s">
+        <v>210</v>
+      </c>
+      <c r="F71" s="2">
+        <v>45127.2339199611</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>98</v>
+      </c>
+      <c r="B72">
+        <v>5801167587</v>
+      </c>
+      <c r="C72" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" t="s">
+        <v>170</v>
+      </c>
+      <c r="E72" t="s">
+        <v>209</v>
+      </c>
+      <c r="F72" s="2">
+        <v>45141.78806185245</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>78</v>
+      </c>
+      <c r="B73">
+        <v>455798508</v>
+      </c>
+      <c r="C73" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" t="s">
+        <v>171</v>
+      </c>
+      <c r="E73" t="s">
+        <v>209</v>
+      </c>
+      <c r="F73" s="2">
+        <v>45137.61238415213</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>111</v>
+      </c>
+      <c r="B74">
+        <v>1083820824</v>
+      </c>
+      <c r="C74" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74" t="s">
+        <v>172</v>
+      </c>
+      <c r="E74" t="s">
+        <v>209</v>
+      </c>
+      <c r="F74" s="2">
+        <v>45152.40065467536</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>7</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>79</v>
+      </c>
+      <c r="B75">
+        <v>803245932</v>
+      </c>
+      <c r="C75" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" t="s">
+        <v>173</v>
+      </c>
+      <c r="E75" t="s">
+        <v>209</v>
+      </c>
+      <c r="F75" s="2">
+        <v>45137.61396473942</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>282795338</v>
+      </c>
+      <c r="C76" t="s">
+        <v>75</v>
+      </c>
+      <c r="D76" t="s">
+        <v>174</v>
+      </c>
+      <c r="E76" t="s">
+        <v>209</v>
+      </c>
+      <c r="F76" s="2">
+        <v>45137.50054365915</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>80</v>
+      </c>
+      <c r="B77">
+        <v>5467749985</v>
+      </c>
+      <c r="C77" t="s">
+        <v>76</v>
+      </c>
+      <c r="D77" t="s">
+        <v>175</v>
+      </c>
+      <c r="E77" t="s">
+        <v>209</v>
+      </c>
+      <c r="F77" s="2">
+        <v>45137.61963798379</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>99</v>
+      </c>
+      <c r="B78">
+        <v>5549773016</v>
+      </c>
+      <c r="C78" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78" t="s">
+        <v>120</v>
+      </c>
+      <c r="E78" t="s">
+        <v>209</v>
+      </c>
+      <c r="F78" s="2">
+        <v>45141.79516436767</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>81</v>
+      </c>
+      <c r="B79">
+        <v>792311099</v>
+      </c>
+      <c r="C79" t="s">
+        <v>78</v>
+      </c>
+      <c r="D79" t="s">
+        <v>176</v>
+      </c>
+      <c r="E79" t="s">
+        <v>210</v>
+      </c>
+      <c r="F79" s="2">
+        <v>45137.62896218573</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>96</v>
+      </c>
+      <c r="B80">
+        <v>5880334771</v>
+      </c>
+      <c r="C80" t="s">
+        <v>79</v>
+      </c>
+      <c r="D80" t="s">
+        <v>177</v>
+      </c>
+      <c r="E80" t="s">
+        <v>210</v>
+      </c>
+      <c r="F80" s="2">
+        <v>45141.78265644226</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>4</v>
+      </c>
+      <c r="B81">
+        <v>996346575</v>
+      </c>
+      <c r="C81" t="s">
+        <v>80</v>
+      </c>
+      <c r="D81" t="s">
+        <v>178</v>
+      </c>
+      <c r="E81" t="s">
+        <v>209</v>
+      </c>
+      <c r="F81" s="2">
+        <v>45124.92812419538</v>
+      </c>
+      <c r="G81">
+        <v>50</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>7</v>
+      </c>
+      <c r="K81">
+        <v>117565</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>89</v>
+      </c>
+      <c r="B82">
+        <v>403027615</v>
+      </c>
+      <c r="C82" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82" t="s">
+        <v>179</v>
+      </c>
+      <c r="E82" t="s">
+        <v>209</v>
+      </c>
+      <c r="F82" s="2">
+        <v>45139.62385749015</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>7</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>114</v>
+      </c>
+      <c r="B83">
+        <v>5937034764</v>
+      </c>
+      <c r="C83" t="s">
+        <v>82</v>
+      </c>
+      <c r="D83" t="s">
+        <v>180</v>
+      </c>
+      <c r="E83" t="s">
+        <v>210</v>
+      </c>
+      <c r="F83" s="2">
+        <v>45156.70684261493</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>7</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>5185376521</v>
+      </c>
+      <c r="C84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D84" t="s">
+        <v>181</v>
+      </c>
+      <c r="E84" t="s">
+        <v>209</v>
+      </c>
+      <c r="F84" s="2">
+        <v>45137.66041176292</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>5612460422</v>
+      </c>
+      <c r="D85" t="s">
+        <v>182</v>
+      </c>
+      <c r="E85" t="s">
+        <v>209</v>
+      </c>
+      <c r="F85" s="2">
+        <v>45137.8890795669</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
+        <v>72</v>
+      </c>
+      <c r="B86">
+        <v>5032850998</v>
+      </c>
+      <c r="C86" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" t="s">
+        <v>183</v>
+      </c>
+      <c r="E86" t="s">
+        <v>209</v>
+      </c>
+      <c r="F86" s="2">
+        <v>45130.70735023356</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>2</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>73</v>
+      </c>
+      <c r="B87">
+        <v>823769631</v>
+      </c>
+      <c r="C87" t="s">
+        <v>85</v>
+      </c>
+      <c r="D87" t="s">
+        <v>184</v>
+      </c>
+      <c r="E87" t="s">
+        <v>209</v>
+      </c>
+      <c r="F87" s="2">
+        <v>45132.32198731581</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88">
+        <v>75</v>
+      </c>
+      <c r="B88">
+        <v>170322550</v>
+      </c>
+      <c r="C88" t="s">
+        <v>86</v>
+      </c>
+      <c r="D88" t="s">
+        <v>185</v>
+      </c>
+      <c r="E88" t="s">
+        <v>211</v>
+      </c>
+      <c r="F88" s="2">
+        <v>45135.80255394251</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>7</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>85</v>
+      </c>
+      <c r="B89">
+        <v>756087107</v>
+      </c>
+      <c r="C89" t="s">
+        <v>87</v>
+      </c>
+      <c r="D89" t="s">
+        <v>186</v>
+      </c>
+      <c r="E89" t="s">
+        <v>209</v>
+      </c>
+      <c r="F89" s="2">
+        <v>45138.35832491436</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>117</v>
+      </c>
+      <c r="B90">
+        <v>954303494</v>
+      </c>
+      <c r="C90" t="s">
+        <v>88</v>
+      </c>
+      <c r="D90" t="s">
+        <v>187</v>
+      </c>
+      <c r="E90" t="s">
+        <v>211</v>
+      </c>
+      <c r="F90" s="2">
+        <v>45157.95354757764</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>87</v>
+      </c>
+      <c r="B91">
+        <v>271911282</v>
+      </c>
+      <c r="C91" t="s">
+        <v>89</v>
+      </c>
+      <c r="D91" t="s">
+        <v>188</v>
+      </c>
+      <c r="E91" t="s">
+        <v>209</v>
+      </c>
+      <c r="F91" s="2">
+        <v>45138.54966644593</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>5751308870</v>
+      </c>
+      <c r="D92" t="s">
+        <v>189</v>
+      </c>
+      <c r="E92" t="s">
+        <v>209</v>
+      </c>
+      <c r="F92" s="2">
+        <v>45141.62074759621</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>775969441</v>
+      </c>
+      <c r="D93" t="s">
+        <v>190</v>
+      </c>
+      <c r="E93" t="s">
+        <v>209</v>
+      </c>
+      <c r="F93" s="2">
+        <v>45141.62124280007</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>526209651</v>
+      </c>
+      <c r="D94" t="s">
+        <v>191</v>
+      </c>
+      <c r="E94" t="s">
+        <v>210</v>
+      </c>
+      <c r="F94" s="2">
+        <v>45141.62377577547</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95">
+        <v>90</v>
+      </c>
+      <c r="B95">
+        <v>6130575577</v>
+      </c>
+      <c r="C95" t="s">
+        <v>90</v>
+      </c>
+      <c r="D95" t="s">
+        <v>192</v>
+      </c>
+      <c r="E95" t="s">
+        <v>209</v>
+      </c>
+      <c r="F95" s="2">
+        <v>45140.47480425985</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96">
+        <v>112</v>
+      </c>
+      <c r="B96">
+        <v>76253644</v>
+      </c>
+      <c r="C96" t="s">
+        <v>91</v>
+      </c>
+      <c r="D96" t="s">
+        <v>193</v>
+      </c>
+      <c r="E96" t="s">
+        <v>211</v>
+      </c>
+      <c r="F96" s="2">
+        <v>45152.53798715551</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97">
+        <v>88</v>
+      </c>
+      <c r="B97">
+        <v>1666038493</v>
+      </c>
+      <c r="C97" t="s">
+        <v>92</v>
+      </c>
+      <c r="D97" t="s">
+        <v>194</v>
+      </c>
+      <c r="E97" t="s">
+        <v>209</v>
+      </c>
+      <c r="F97" s="2">
+        <v>45139.58571297584</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98">
+        <v>113</v>
+      </c>
+      <c r="B98">
+        <v>857541621</v>
+      </c>
+      <c r="C98" t="s">
+        <v>93</v>
+      </c>
+      <c r="D98" t="s">
+        <v>195</v>
+      </c>
+      <c r="E98" t="s">
+        <v>210</v>
+      </c>
+      <c r="F98" s="2">
+        <v>45155.67483876552</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>71</v>
+      </c>
+      <c r="B99">
+        <v>5277905864</v>
+      </c>
+      <c r="C99" t="s">
+        <v>94</v>
+      </c>
+      <c r="D99" t="s">
+        <v>196</v>
+      </c>
+      <c r="E99" t="s">
+        <v>209</v>
+      </c>
+      <c r="F99" s="2">
+        <v>45130.43373236043</v>
+      </c>
+      <c r="G99">
+        <v>500</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>5</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100">
+        <v>101</v>
+      </c>
+      <c r="B100">
+        <v>41404506</v>
+      </c>
+      <c r="C100" t="s">
+        <v>95</v>
+      </c>
+      <c r="D100" t="s">
+        <v>197</v>
+      </c>
+      <c r="E100" t="s">
+        <v>209</v>
+      </c>
+      <c r="F100" s="2">
+        <v>45145.68474264652</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>7</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>5396072724</v>
+      </c>
+      <c r="C101" t="s">
+        <v>96</v>
+      </c>
+      <c r="D101" t="s">
+        <v>198</v>
+      </c>
+      <c r="E101" t="s">
+        <v>209</v>
+      </c>
+      <c r="F101" s="2">
+        <v>45145.01064250038</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>2</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102">
+        <v>105</v>
+      </c>
+      <c r="B102">
+        <v>6346401570</v>
+      </c>
+      <c r="D102" t="s">
+        <v>199</v>
+      </c>
+      <c r="E102" t="s">
+        <v>209</v>
+      </c>
+      <c r="F102" s="2">
+        <v>45146.813118445</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>1107772326</v>
+      </c>
+      <c r="C103" t="s">
+        <v>97</v>
+      </c>
+      <c r="D103" t="s">
+        <v>200</v>
+      </c>
+      <c r="E103" t="s">
+        <v>209</v>
+      </c>
+      <c r="F103" s="2">
+        <v>45146.43422942939</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104">
+        <v>106</v>
+      </c>
+      <c r="B104">
+        <v>6345323404</v>
+      </c>
+      <c r="D104" t="s">
+        <v>201</v>
+      </c>
+      <c r="E104" t="s">
+        <v>209</v>
+      </c>
+      <c r="F104" s="2">
+        <v>45146.87468582238</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105">
+        <v>116</v>
+      </c>
+      <c r="B105">
+        <v>6582981728</v>
+      </c>
+      <c r="D105" t="s">
+        <v>202</v>
+      </c>
+      <c r="E105" t="s">
+        <v>209</v>
+      </c>
+      <c r="F105" s="2">
+        <v>45156.78539381971</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106">
+        <v>97</v>
+      </c>
+      <c r="B106">
+        <v>364134830</v>
+      </c>
+      <c r="C106" t="s">
+        <v>98</v>
+      </c>
+      <c r="D106" t="s">
+        <v>203</v>
+      </c>
+      <c r="E106" t="s">
+        <v>209</v>
+      </c>
+      <c r="F106" s="2">
+        <v>45141.78466994382</v>
+      </c>
+      <c r="G106">
+        <v>100</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107">
+        <v>82</v>
+      </c>
+      <c r="B107">
+        <v>5617152047</v>
+      </c>
+      <c r="C107" t="s">
+        <v>99</v>
+      </c>
+      <c r="D107" t="s">
+        <v>204</v>
+      </c>
+      <c r="E107" t="s">
+        <v>209</v>
+      </c>
+      <c r="F107" s="2">
+        <v>45137.63133627492</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>411320972</v>
+      </c>
+      <c r="C108" t="s">
+        <v>100</v>
+      </c>
+      <c r="D108" t="s">
+        <v>205</v>
+      </c>
+      <c r="E108" t="s">
+        <v>209</v>
+      </c>
+      <c r="F108" s="2">
+        <v>45146.93602754211</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>7</v>
+      </c>
+      <c r="K108">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>109</v>
+      </c>
+      <c r="B109">
+        <v>1132749689</v>
+      </c>
+      <c r="C109" t="s">
+        <v>101</v>
+      </c>
+      <c r="D109" t="s">
+        <v>206</v>
+      </c>
+      <c r="E109" t="s">
+        <v>211</v>
+      </c>
+      <c r="F109" s="2">
+        <v>45150.93047579612</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>1236244250</v>
+      </c>
+      <c r="C110" t="s">
+        <v>102</v>
+      </c>
+      <c r="D110" t="s">
+        <v>207</v>
+      </c>
+      <c r="E110" t="s">
+        <v>209</v>
+      </c>
+      <c r="F110" s="2">
+        <v>45148.49220634488</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>7</v>
+      </c>
+      <c r="K110">
+        <v>7465</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>115</v>
+      </c>
+      <c r="B111">
+        <v>680195982</v>
+      </c>
+      <c r="C111" t="s">
+        <v>103</v>
+      </c>
+      <c r="D111" t="s">
+        <v>208</v>
+      </c>
+      <c r="E111" t="s">
+        <v>211</v>
+      </c>
+      <c r="F111" s="2">
+        <v>45156.7434808697</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
